--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>928162.7837245457</v>
+        <v>925461.5670730888</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673451</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>225.1346772411287</v>
+        <v>72.36698404190665</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16.6619765928418</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>118.2034579089095</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>8.485426998824307</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>77.75392192072621</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.5565966897794</v>
       </c>
       <c r="D5" t="n">
-        <v>180.3890229659493</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.6877278154319</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863699</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>95.77682125737124</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.25488447871513</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713763</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
         <v>193.9455960238326</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>87.60336766488756</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>138.946457809757</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643621</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>60.31599661131703</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.523540462315</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,13 +1190,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542853</v>
+        <v>245.5761046894312</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>304.0065125199838</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>252.6333499562425</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184577</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615225</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812554</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530801</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075614</v>
+        <v>123.6502311075613</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>70.10477938029818</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793459</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710068</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740325</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.2944603446576</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012413</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>20.72279572932659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795613</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>20.92847288552893</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456775</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673016</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428122</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>214.0780236353746</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.799772605715788</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428134</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.006892987832515</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670941</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>57.24347904696434</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>120.787132650397</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3907,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>41.74133133758814</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>115.4764219077141</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
         <v>41.00642392276842</v>
@@ -4319,31 +4319,31 @@
         <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>646.859700735818</v>
       </c>
       <c r="V2" t="n">
-        <v>534.7928453799753</v>
+        <v>380.48204416864</v>
       </c>
       <c r="W2" t="n">
-        <v>534.7928453799753</v>
+        <v>380.48204416864</v>
       </c>
       <c r="X2" t="n">
-        <v>268.4151888127974</v>
+        <v>380.48204416864</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>474.1185955443175</v>
+        <v>197.1648447922849</v>
       </c>
       <c r="C3" t="n">
-        <v>474.1185955443175</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>325.1841858830662</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4440,19 +4440,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="W3" t="n">
-        <v>681.9700957498503</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="X3" t="n">
-        <v>474.1185955443175</v>
+        <v>365.3801818123529</v>
       </c>
       <c r="Y3" t="n">
-        <v>474.1185955443175</v>
+        <v>365.3801818123529</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.1245950146483</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>331.1245950146483</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>331.1245950146483</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1046.284381623374</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1046.284381623374</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1046.284381623374</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>1046.284381623374</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="V4" t="n">
-        <v>1046.284381623374</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="W4" t="n">
-        <v>779.9067250561958</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>551.9171741581785</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>331.1245950146483</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>332.6993726434845</v>
+        <v>1136.345205654773</v>
       </c>
       <c r="C5" t="n">
-        <v>332.6993726434845</v>
+        <v>816.5910675842888</v>
       </c>
       <c r="D5" t="n">
-        <v>150.4882383344449</v>
+        <v>816.5910675842888</v>
       </c>
       <c r="E5" t="n">
-        <v>150.4882383344449</v>
+        <v>430.8028149860445</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5427375852414</v>
+        <v>43.23945355631528</v>
       </c>
       <c r="G5" t="n">
-        <v>130.9983022541607</v>
+        <v>30.69501822523455</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541607</v>
+        <v>30.69501822523455</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523443</v>
+        <v>30.69501822523455</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275118</v>
+        <v>93.76641159275164</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245556</v>
+        <v>239.0325989245566</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825624</v>
+        <v>456.1499114825642</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748845</v>
+        <v>729.4041931748874</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202378</v>
+        <v>1011.693823202381</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798411</v>
+        <v>1264.916654798415</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189408</v>
+        <v>1446.535482189413</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261727</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261727</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.996673518249</v>
+        <v>1389.996673518255</v>
       </c>
       <c r="T5" t="n">
-        <v>1389.996673518249</v>
+        <v>1389.996673518255</v>
       </c>
       <c r="U5" t="n">
-        <v>1389.996673518249</v>
+        <v>1136.345205654773</v>
       </c>
       <c r="V5" t="n">
-        <v>1058.933786174679</v>
+        <v>1136.345205654773</v>
       </c>
       <c r="W5" t="n">
-        <v>706.1651309045644</v>
+        <v>1136.345205654773</v>
       </c>
       <c r="X5" t="n">
-        <v>332.6993726434845</v>
+        <v>1136.345205654773</v>
       </c>
       <c r="Y5" t="n">
-        <v>332.6993726434845</v>
+        <v>1136.345205654773</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.25550759767395</v>
+        <v>264.6115818588825</v>
       </c>
       <c r="C6" t="n">
-        <v>61.25550759767395</v>
+        <v>264.6115818588825</v>
       </c>
       <c r="D6" t="n">
-        <v>61.25550759767395</v>
+        <v>264.6115818588825</v>
       </c>
       <c r="E6" t="n">
-        <v>61.25550759767395</v>
+        <v>167.8673179625479</v>
       </c>
       <c r="F6" t="n">
-        <v>61.25550759767395</v>
+        <v>167.8673179625479</v>
       </c>
       <c r="G6" t="n">
-        <v>61.25550759767395</v>
+        <v>30.69501822523455</v>
       </c>
       <c r="H6" t="n">
-        <v>61.25550759767395</v>
+        <v>30.69501822523455</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523443</v>
+        <v>30.69501822523455</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563406</v>
+        <v>49.4420610756344</v>
       </c>
       <c r="K6" t="n">
-        <v>388.9600665101411</v>
+        <v>159.638568016945</v>
       </c>
       <c r="L6" t="n">
-        <v>583.4554103414929</v>
+        <v>354.1339118482972</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122385</v>
+        <v>600.4576725190434</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584461</v>
+        <v>889.0545187259748</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749979</v>
+        <v>1111.317965891494</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948667</v>
+        <v>1270.370911090182</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261727</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261722</v>
+        <v>1530.346686757976</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655817</v>
+        <v>1385.878273152071</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207501</v>
+        <v>1189.973630703755</v>
       </c>
       <c r="U6" t="n">
-        <v>966.256771528105</v>
+        <v>961.8525470243596</v>
       </c>
       <c r="V6" t="n">
-        <v>731.1046632963623</v>
+        <v>726.700438792617</v>
       </c>
       <c r="W6" t="n">
-        <v>476.8673065681607</v>
+        <v>472.4630820644153</v>
       </c>
       <c r="X6" t="n">
-        <v>269.0158063626279</v>
+        <v>264.6115818588825</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.25550759767395</v>
+        <v>264.6115818588825</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.9694565306897</v>
+        <v>236.9104562721288</v>
       </c>
       <c r="C7" t="n">
-        <v>172.9694565306897</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="D7" t="n">
-        <v>172.9694565306897</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="E7" t="n">
-        <v>172.9694565306897</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="F7" t="n">
-        <v>172.9694565306897</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="G7" t="n">
-        <v>32.61949914709668</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709668</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709668</v>
+        <v>30.69501822523455</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523443</v>
+        <v>30.69501822523455</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223265</v>
+        <v>157.4322756223269</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830387</v>
+        <v>375.1387655830393</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388148</v>
+        <v>615.0688576388159</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974819</v>
+        <v>854.7285647974833</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891673</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934021</v>
+        <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495183</v>
+        <v>1113.866490402742</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495183</v>
+        <v>910.3578444371316</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495183</v>
+        <v>685.6925863136762</v>
       </c>
       <c r="U7" t="n">
-        <v>945.0606656715545</v>
+        <v>685.6925863136762</v>
       </c>
       <c r="V7" t="n">
-        <v>690.3761774656676</v>
+        <v>685.6925863136762</v>
       </c>
       <c r="W7" t="n">
-        <v>400.959007428707</v>
+        <v>685.6925863136762</v>
       </c>
       <c r="X7" t="n">
-        <v>172.9694565306897</v>
+        <v>457.7030354156589</v>
       </c>
       <c r="Y7" t="n">
-        <v>172.9694565306897</v>
+        <v>236.9104562721288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>527.8767859460547</v>
+        <v>970.5047989601117</v>
       </c>
       <c r="C8" t="n">
-        <v>527.8767859460547</v>
+        <v>601.5422820197</v>
       </c>
       <c r="D8" t="n">
-        <v>527.8767859460547</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="E8" t="n">
-        <v>527.8767859460547</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>236.331082663746</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4817,37 +4817,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796631</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.25053145306</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182946</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218665</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="Y8" t="n">
-        <v>527.8767859460547</v>
+        <v>1357.104639024233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380233</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694951</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425661</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.04689843412</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885493</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606424</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800313</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.751114818789</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2295.731532700787</v>
+        <v>1485.490329133575</v>
       </c>
       <c r="C11" t="n">
-        <v>1926.769015760376</v>
+        <v>1116.527812193164</v>
       </c>
       <c r="D11" t="n">
-        <v>1568.503317153625</v>
+        <v>1116.527812193163</v>
       </c>
       <c r="E11" t="n">
-        <v>1182.715064555381</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="F11" t="n">
-        <v>771.7291597657736</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="G11" t="n">
-        <v>357.1133952069188</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592058</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706895</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656962</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625328</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087829</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484039</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535292</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479989</v>
+        <v>3493.127967479997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464055</v>
+        <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796029</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345372</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3776.999350345372</v>
+        <v>3573.020743926745</v>
       </c>
       <c r="U11" t="n">
-        <v>3776.999350345372</v>
+        <v>3319.526802048273</v>
       </c>
       <c r="V11" t="n">
-        <v>3445.936463001801</v>
+        <v>2988.463914704702</v>
       </c>
       <c r="W11" t="n">
-        <v>3445.936463001801</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>3072.470704740721</v>
+        <v>2262.229501173509</v>
       </c>
       <c r="Y11" t="n">
-        <v>2682.331372764909</v>
+        <v>1872.090169197697</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592058</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592058</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>84.53144813504719</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929981</v>
+        <v>889.4740370626179</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749526</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450735</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783257</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>446.380307375597</v>
+        <v>394.3869424262209</v>
       </c>
       <c r="C13" t="n">
-        <v>375.5673989106494</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="D13" t="n">
-        <v>225.4507594983137</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="E13" t="n">
-        <v>77.53766591592058</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="F13" t="n">
-        <v>77.53766591592058</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592058</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592058</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592058</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648138</v>
+        <v>364.169024664815</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344799</v>
+        <v>710.5788654344815</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376938</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818662</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.94034901072</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742805</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742805</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276101</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710541</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659992</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454105</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>895.1624374171445</v>
+        <v>814.5429355999245</v>
       </c>
       <c r="X13" t="n">
-        <v>667.1728865191271</v>
+        <v>796.8279863999907</v>
       </c>
       <c r="Y13" t="n">
-        <v>446.380307375597</v>
+        <v>576.0354072564605</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>150.8995423128889</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841095</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998682</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.57599612053</v>
+        <v>513.8536007400689</v>
       </c>
       <c r="C16" t="n">
-        <v>920.6398131926228</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>770.5231737802869</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>622.6100801978939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>475.7201326999837</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>308.5240334148637</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>2264.108249235164</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>2009.423761029277</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X16" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138388</v>
       </c>
       <c r="Y16" t="n">
-        <v>1271.224460950769</v>
+        <v>695.5020655703087</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5513,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.38435762632</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>680.4481746984131</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597622</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474265</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>114.9565346495162</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188011</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908942</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908942</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908942</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908942</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.101820392571</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490408</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,22 +6309,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,34 +6361,34 @@
         <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121639</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270438</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6415,10 +6415,10 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
         <v>1144.284195611858</v>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,19 +6455,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133953</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310022</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235162</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258104</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498398</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,31 +6695,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,19 +6780,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6838,19 +6838,19 @@
         <v>344.917417812164</v>
       </c>
       <c r="D34" t="n">
-        <v>344.917417812164</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>344.917417812164</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>344.917417812164</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270439</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6874,13 +6874,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
@@ -6898,7 +6898,7 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y34" t="n">
         <v>695.5020655703106</v>
@@ -6929,19 +6929,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188007</v>
+        <v>580.8993044876673</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597604</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925705</v>
+        <v>983.3403484614375</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490404</v>
+        <v>762.5477693179071</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327659</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7333,49 +7333,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630056</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7415,16 +7415,16 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876698</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876698</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>430.7826650753341</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>282.869571492941</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>135.9796239950306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>135.9796239950306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614398</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179096</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.708435085167</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572601</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449244</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154068</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637022</v>
+        <v>34.43939438636991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.6378772658554</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.56058953000883</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878354</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111059</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>77.92385755227798</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>37.34415338313241</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.14204171832965</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927382</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905251</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811026</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459533</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>9.00025250156628</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253352</v>
       </c>
     </row>
     <row r="20">
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>144.5956654067399</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345295035</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194267</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.50662971672017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124966</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303798</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.22910392194304</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0033420516635</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393041</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823079</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>98.55338150863575</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345294992</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>30.95754073885505</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>890696.0284645091</v>
+        <v>890696.0284645099</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>980164.8549632416</v>
+        <v>980164.8549632414</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>980164.8549632416</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>980164.8549632416</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>980164.8549632415</v>
+        <v>980164.8549632414</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>980164.8549632415</v>
+        <v>980164.8549632416</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>980164.8549632416</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>980164.8549632416</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>980164.8549632416</v>
+        <v>980164.8549632414</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26317,19 @@
         <v>451572.9734253557</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="E2" t="n">
-        <v>402924.0843509175</v>
+        <v>402924.0843509178</v>
       </c>
       <c r="F2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="G2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="H2" t="n">
         <v>443930.6298295035</v>
-      </c>
-      <c r="H2" t="n">
-        <v>443930.6298295034</v>
       </c>
       <c r="I2" t="n">
         <v>443930.6298295034</v>
@@ -26338,19 +26338,19 @@
         <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="L2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="M2" t="n">
         <v>443930.6298295033</v>
       </c>
-      <c r="L2" t="n">
-        <v>443930.6298295034</v>
-      </c>
-      <c r="M2" t="n">
-        <v>443930.6298295034</v>
-      </c>
       <c r="N2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="P2" t="n">
         <v>443930.6298295034</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657064</v>
+        <v>132804.2190657077</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929387</v>
+        <v>265413.0723929368</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545754</v>
+        <v>313577.1573545781</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704305</v>
+        <v>189308.2687704281</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.429264174</v>
+        <v>30877.42926417448</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049596</v>
+        <v>65018.34502049544</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273023</v>
+        <v>81897.40371273097</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202411</v>
+        <v>49839.57413202341</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>217460.7998099266</v>
+        <v>217460.7998099262</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676994</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
         <v>12281.50162217159</v>
@@ -26436,28 +26436,28 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="K4" t="n">
-        <v>12386.92018181814</v>
-      </c>
       <c r="L4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667488</v>
+        <v>72593.650386675</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738554</v>
+        <v>85137.48506738573</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-544579.5752774389</v>
       </c>
       <c r="C6" t="n">
-        <v>28714.3041630479</v>
+        <v>28714.30416304679</v>
       </c>
       <c r="D6" t="n">
-        <v>-49524.82867512695</v>
+        <v>-49524.82867512535</v>
       </c>
       <c r="E6" t="n">
-        <v>-8072.059693215051</v>
+        <v>-8293.191007192345</v>
       </c>
       <c r="F6" t="n">
-        <v>141112.9110533476</v>
+        <v>141078.1731279143</v>
       </c>
       <c r="G6" t="n">
-        <v>330421.1798237783</v>
+        <v>330386.4418983424</v>
       </c>
       <c r="H6" t="n">
-        <v>330421.1798237782</v>
+        <v>330386.4418983426</v>
       </c>
       <c r="I6" t="n">
-        <v>330421.1798237782</v>
+        <v>330386.4418983425</v>
       </c>
       <c r="J6" t="n">
-        <v>261422.0254046642</v>
+        <v>261387.2874792285</v>
       </c>
       <c r="K6" t="n">
-        <v>299543.750559604</v>
+        <v>299509.0126341679</v>
       </c>
       <c r="L6" t="n">
-        <v>265402.8348032822</v>
+        <v>265368.096877847</v>
       </c>
       <c r="M6" t="n">
-        <v>248523.7761110479</v>
+        <v>248489.0381856114</v>
       </c>
       <c r="N6" t="n">
-        <v>280581.6056917541</v>
+        <v>280546.8677663189</v>
       </c>
       <c r="O6" t="n">
-        <v>330421.1798237782</v>
+        <v>330386.4418983423</v>
       </c>
       <c r="P6" t="n">
-        <v>330421.1798237782</v>
+        <v>330386.4418983424</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695743</v>
+        <v>717.3319511695754</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154304</v>
+        <v>383.6877278154319</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490074</v>
+        <v>969.2208239490097</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.276937400096</v>
+        <v>103.276937400097</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479652</v>
+        <v>216.7329409479637</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974096</v>
+        <v>268.176345097412</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267247</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139242</v>
+        <v>119.9738478139257</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846087</v>
+        <v>256.8971042846069</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489683</v>
+        <v>328.635991848971</v>
       </c>
       <c r="F4" t="n">
-        <v>203.487464150641</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813924</v>
+        <v>119.9738478139259</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846089</v>
+        <v>256.8971042846069</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848968</v>
+        <v>328.635991848971</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506412</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139242</v>
+        <v>119.9738478139257</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846087</v>
+        <v>256.8971042846069</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489683</v>
+        <v>328.635991848971</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150641</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>161.1032614149249</v>
+        <v>313.870954614147</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>156.0465223954739</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,13 +27512,13 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>133.4915252520101</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>119.0191758848396</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>208.7690764158648</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.71629508122817</v>
       </c>
       <c r="D5" t="n">
-        <v>174.2940186547337</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.18831792627958</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863682</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>61.8682591980297</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>97.33388804333227</v>
       </c>
       <c r="I6" t="n">
-        <v>6.018580290802227</v>
+        <v>36.27346476951727</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713905</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>79.64345343374028</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>27.75097212855985</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643479</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>346.5600491303944</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.024162310639</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983995</v>
+        <v>6.561538634396783</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.677937203841219e-13</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.51582450295488e-12</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>9.496150991986754e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88374653736512</v>
+        <v>2.883746537365125</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579055</v>
+        <v>29.53316922579059</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817689</v>
+        <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756931</v>
+        <v>244.7543826756935</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023587</v>
+        <v>366.8233736023593</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952467</v>
+        <v>455.0768316952474</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791136</v>
+        <v>506.3606591791144</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284023</v>
+        <v>514.5541040284031</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974778</v>
+        <v>485.8788493974786</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562763</v>
+        <v>414.686356756277</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868879</v>
+        <v>311.4121838868884</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277619</v>
+        <v>181.1461434277622</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020775</v>
+        <v>65.71337422020785</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731582</v>
+        <v>12.62360046731584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892096</v>
+        <v>0.23069972298921</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270405</v>
+        <v>1.542940423270408</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316418</v>
+        <v>14.9015561931642</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189772</v>
+        <v>53.12316808189781</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862623</v>
+        <v>145.7740335862625</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453794</v>
+        <v>249.1510419453798</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438658</v>
+        <v>335.0143230438663</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874179</v>
+        <v>390.9459133874186</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189112</v>
+        <v>401.2930884189119</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348669</v>
+        <v>367.1047769348675</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190654</v>
+        <v>294.6339480190658</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739556</v>
+        <v>196.9549915739559</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392923</v>
+        <v>95.79765189392937</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399194</v>
+        <v>28.65944163399198</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989042</v>
+        <v>6.219132670989053</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141855</v>
+        <v>1.293549420141857</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907941</v>
+        <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572052</v>
+        <v>38.90055892572059</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402915</v>
+        <v>91.4539440040293</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401173</v>
+        <v>150.2869235401176</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545446</v>
+        <v>192.3155201545449</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773273</v>
+        <v>202.7697513773276</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022533</v>
+        <v>197.9483399022536</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669597</v>
+        <v>182.83733076696</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960658</v>
+        <v>156.448922596066</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266057</v>
+        <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565103</v>
+        <v>58.16268574565112</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101759</v>
+        <v>22.54303853101763</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060652</v>
+        <v>5.526983886060661</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864672</v>
+        <v>0.07055724109864683</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869138</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639233</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285601</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203911</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975119</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544647</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795455</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180157</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956794</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.010221962035</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825962</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696625</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968216</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.386650448149531</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.58595284985857</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837093</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469199</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>144.9058654583253</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747741</v>
+        <v>561.4806834747751</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821471</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340497</v>
+        <v>267.5398078833307</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924466</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383439</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047536</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627647</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535154</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092165</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798447</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329023</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100537</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770059</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531025</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806235</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493061</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194573</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811697</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493535</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377472</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4971006716334</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>650.5350891770659</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,16 +32789,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,16 +33029,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,28 +33971,28 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900682</v>
+        <v>63.70847814900722</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573782</v>
+        <v>146.7335225573788</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252594</v>
+        <v>219.3104167252602</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518408</v>
+        <v>276.0144259518416</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318114</v>
+        <v>285.1410404318122</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757911</v>
+        <v>255.7806379757918</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010068</v>
+        <v>183.4533610010075</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243839</v>
+        <v>89.1064940124389</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959558</v>
+        <v>18.93640691959581</v>
       </c>
       <c r="K6" t="n">
-        <v>342.9474802368758</v>
+        <v>111.3096029710208</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639916</v>
+        <v>196.4599432639922</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653996</v>
+        <v>248.8118794654002</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355779</v>
+        <v>291.5119658655873</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904225</v>
+        <v>224.5085324904231</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047351</v>
+        <v>160.6595406047356</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793408</v>
+        <v>267.0505052237835</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142344</v>
+        <v>128.0174317142347</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148607</v>
+        <v>219.905545414861</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391679</v>
+        <v>242.3536283391682</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814819</v>
+        <v>242.0805122814822</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809994</v>
+        <v>207.4224586809997</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609592</v>
+        <v>153.7274818609595</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491133</v>
+        <v>22.1550813749115</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313203</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>474.3640795072288</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937048</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525313</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844774</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681823</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214247</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739927</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067654</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081467</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.0136023555304</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>7.064426483966264</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036948999</v>
+        <v>422.9263036949009</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601288</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507165</v>
+        <v>136.1980957999974</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480022</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240137</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187321</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655353</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186259</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070195</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703698</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388465</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323311</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946632</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141996</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776291</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>57.6594740049667</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>519.1933770937326</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010428</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060442</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010467</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
